--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -788,7 +788,11 @@
           <t>skos:prefLable</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Beer ontology</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -821,7 +825,11 @@
           <t>dct:description</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Qualitative and quantitative variables describing beer</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -854,7 +862,11 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kristina-tomicic-6bb443108/</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -889,7 +901,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -963,7 +975,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-06-14T11:16+02:00</t>
+          <t>2021-08-23T18:13+02:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1000,7 +1012,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-06-14T11:16+02:00</t>
+          <t>2021-08-23T18:13+02:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1170,12 +1182,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>beer-onto:alc_percentage</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>alc_percentage</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Percentage of alcohol in a unit of a beer</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1203,12 +1223,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>beer-onto:beer_color</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>beer_color</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Color shade of a certain beer.</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
+          <t>2021-08-24T09:33+02:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1261,6 +1261,88 @@
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>beer-onto:beer_nutrition</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>beer_nutrition</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Calories in a unit of a beer.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>beer-onto:beer_bitterness</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>beer_bitterness</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The scale of beer bitterness determining the taste of beer.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,14 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m/beer-ontology/</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr"/>
+          <t>http://purl.org/incentive/variables/</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Main PID under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -450,30 +454,15 @@
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
-      <c r="U1" t="inlineStr"/>
-      <c r="V1" t="inlineStr"/>
-      <c r="W1" t="inlineStr"/>
-      <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr"/>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>beer-onto</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://purl.org/m4m/beer-ontology/</t>
-        </is>
-      </c>
+          <t>Prefixes for controlled vocabularies, schema and ontologies</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -491,13 +480,6 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,15 +489,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>incentive-vars</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>http://purl.org/incentive/variables/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -532,13 +518,6 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -548,15 +527,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prefix for SKOS Onotlogy which our base for defining SKOS based controlled vocabulary</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -573,13 +556,6 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,15 +565,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>http://purl.org/pav/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -614,13 +594,6 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -630,15 +603,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>http://purl.org/dc/terms/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -655,13 +632,6 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -671,15 +641,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -696,13 +670,6 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,15 +679,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wikidata</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.wikidata.org/wiki/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically state unit of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -737,25 +708,14 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Beer ontology</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -774,26 +734,23 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>skos:prefLable</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beer ontology</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>INCENTIVE Project Variables</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -811,26 +768,23 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qualitative and quantitative variables describing beer</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>incentive-vars</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Prefer label of the vocabulary, usually short name</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -848,26 +802,23 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kristina-tomicic-6bb443108/</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Quantitative and qualitative and quantitative variables describing ...</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -885,26 +836,23 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -922,26 +870,23 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -959,26 +904,23 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -996,26 +938,23 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-24T09:33+02:00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>2021-08-23T18:13+02:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1033,132 +972,54 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>2021-08-24T09:33+02:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>beer-onto:Deprecated</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Deprecated</t>
-        </is>
-      </c>
+          <t>Definition of terms and missing properties</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1171,39 +1032,68 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beer-onto:alc_percentage</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alc_percentage</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>qudt:unit</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Percentage of alcohol in a unit of a beer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1212,35 +1102,32 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beer-onto:beer_color</t>
+          <t>incentive-vars:AtmosphericParameter</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>beer_color</t>
+          <t>Atmospheric Parameter</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Color shade of a certain beer.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1253,38 +1140,39 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>beer-onto:beer_nutrition</t>
+          <t>incentive-vars:wind_speed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>beer_nutrition</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Calories in a unit of a beer.</t>
-        </is>
-      </c>
+          <t>wind_speed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>unit:M-PER-SEC</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>incentive-vars:AtmosphericParameter</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1294,31 +1182,16 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beer-onto:beer_bitterness</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>beer_bitterness</t>
-        </is>
-      </c>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>The scale of beer bitterness determining the taste of beer.</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1335,13 +1208,58 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>qudt:unit</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,17 +772,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>incentive-vars</t>
+          <t>Quantitative and qualitative and quantitative variables describing ...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Prefer label of the vocabulary, usually short name</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -806,17 +806,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative and quantitative variables describing ...</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -840,17 +840,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -874,17 +874,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -908,17 +908,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>2021-08-23T18:13+02:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -942,17 +942,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
+          <t>2021-08-24T09:33+02:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -976,19 +976,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2021-08-24T09:33+02:00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+          <t>Definition of terms and missing properties</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1010,20 +1002,64 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Definition of terms and missing properties</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qudt:unit</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1036,64 +1072,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>incentive-vars:AtmosphericParameter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
+          <t>Atmospheric Parameter</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
+          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1106,31 +1110,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>incentive-vars:wind_speed</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>wind_speed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>unit:M-PER-SEC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>incentive-vars:AtmosphericParameter</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Atmospheric Parameter</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1144,35 +1152,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>incentive-vars:wind_speed</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>wind_speed</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>unit:M-PER-SEC</t>
-        </is>
-      </c>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>incentive-vars:AtmosphericParameter</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1235,32 +1227,6 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -976,7 +976,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms and missing properties</t>
+          <t>Definition of terms</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>http://purl.org/aspect/EnviromentalConditionTerms</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1131,7 +1131,11 @@
           <t>incentive-vars:AtmosphericParameter</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>http://purl.org/aspect/wind_speed</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,14 +429,10 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Main PID under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
-        </is>
-      </c>
+          <t>http://purl.org/m4m/beer-ontology/</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -454,15 +450,30 @@
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prefixes for controlled vocabularies, schema and ontologies</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>beer-onto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://purl.org/m4m/beer-ontology/</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -480,6 +491,13 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,19 +507,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>incentive-vars</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
-        </is>
-      </c>
+          <t>http://purl.org/pav/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -518,6 +532,13 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +548,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Prefix for SKOS Onotlogy which our base for defining SKOS based controlled vocabulary</t>
-        </is>
-      </c>
+          <t>http://purl.org/dc/terms/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -556,6 +573,13 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,19 +589,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
-        </is>
-      </c>
+          <t>http://www.w3.org/2002/07/owl#</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -594,6 +614,13 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -603,19 +630,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>xsd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
-        </is>
-      </c>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -632,6 +655,13 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -641,19 +671,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -670,6 +696,13 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -679,19 +712,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>wikidata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically state unit of measurements for terms (i.e., variables) we are defining </t>
-        </is>
-      </c>
+          <t>https://www.wikidata.org/wiki/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -708,14 +737,25 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>dct:title</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Beer ontology</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -734,23 +774,26 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLable</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Variables</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+          <t>Beer ontology</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -768,6 +811,13 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -777,14 +827,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative and quantitative variables describing ...</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
+          <t>Qualitative and quantitative variables describing beer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -802,6 +848,13 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,14 +864,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/in/kristina-tomicic-6bb443108/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -836,6 +885,13 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,11 +904,7 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -870,6 +922,13 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -882,11 +941,7 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -904,6 +959,13 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -916,11 +978,7 @@
           <t>2021-08-23T18:13+02:00</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -938,6 +996,13 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -950,11 +1015,7 @@
           <t>2021-08-24T09:33+02:00</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -972,94 +1033,136 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>beer-onto:Deprecated</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>qudt:unit</t>
-        </is>
-      </c>
+          <t>Deprecated</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1068,33 +1171,36 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>incentive-vars:AtmosphericParameter</t>
+          <t>beer-onto:alc_percentage</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atmospheric Parameter</t>
+          <t>alc_percentage</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Percentage of alcohol in a unit of a beer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>http://purl.org/aspect/EnviromentalConditionTerms</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1106,43 +1212,38 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>incentive-vars:wind_speed</t>
+          <t>beer-onto:beer_color</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wind_speed</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>unit:M-PER-SEC</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>beer_color</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Color shade of a certain beer.</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>incentive-vars:AtmosphericParameter</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>http://purl.org/aspect/wind_speed</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1152,16 +1253,31 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>beer-onto:beer_nutrition</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>beer_nutrition</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Calories in a unit of a beer.</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1178,16 +1294,31 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>beer-onto:beer_bitterness</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>beer_bitterness</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The scale of beer bitterness determining the taste of beer.</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1204,32 +1335,13 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
